--- a/dataFiles/test/bateau/bateau_2_MIL.xlsx
+++ b/dataFiles/test/bateau/bateau_2_MIL.xlsx
@@ -136,25 +136,25 @@
     <t>(1376, 475, 106, 148)</t>
   </si>
   <si>
-    <t>(119, 18, 140)</t>
-  </si>
-  <si>
-    <t>(223, 112, 9)</t>
-  </si>
-  <si>
-    <t>(139, 32, 16)</t>
-  </si>
-  <si>
-    <t>(175, 62, 45)</t>
-  </si>
-  <si>
-    <t>(249, 82, 159)</t>
-  </si>
-  <si>
-    <t>(9, 214, 123)</t>
-  </si>
-  <si>
-    <t>(255, 25, 205)</t>
+    <t>(180, 59, 95)</t>
+  </si>
+  <si>
+    <t>(64, 165, 193)</t>
+  </si>
+  <si>
+    <t>(131, 56, 245)</t>
+  </si>
+  <si>
+    <t>(84, 73, 50)</t>
+  </si>
+  <si>
+    <t>(161, 108, 68)</t>
+  </si>
+  <si>
+    <t>(146, 41, 119)</t>
+  </si>
+  <si>
+    <t>(194, 148, 114)</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
         <v>40</v>
       </c>
       <c r="M2">
-        <v>19.6</v>
+        <v>19.51</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -644,7 +644,7 @@
         <v>41</v>
       </c>
       <c r="M3">
-        <v>20.06</v>
+        <v>19.97</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>42</v>
       </c>
       <c r="M4">
-        <v>19.4</v>
+        <v>19.35</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="M5">
-        <v>19.9</v>
+        <v>19.78</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>44</v>
       </c>
       <c r="M6">
-        <v>19.37</v>
+        <v>19.29</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>45</v>
       </c>
       <c r="M7">
-        <v>19.8</v>
+        <v>19.65</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>46</v>
       </c>
       <c r="M8">
-        <v>20.57</v>
+        <v>20.5</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
